--- a/output/SCAN000702-1/match_result.xlsx
+++ b/output/SCAN000702-1/match_result.xlsx
@@ -43,178 +43,178 @@
     <t>1</t>
   </si>
   <si>
-    <t>3.5092</t>
+    <t>4.0621</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3.9102</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.8674</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.8649</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.8486</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.8340</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.2834</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.2151</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.1849</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.1362</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.8097</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.8009</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.7888</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>3.6275</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.6205</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.5961</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.5667</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.4904</t>
   </si>
   <si>
     <t>338</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.0841</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.4862</t>
   </si>
   <si>
     <t>144</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.0789</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.0330</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.0170</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.0105</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2.9947</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2.9876</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2.9391</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.4798</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2.9180</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2.8472</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2.8469</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.4756</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.4051</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.3712</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2.6498</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2.6455</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2.6411</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>2.6397</t>
-  </si>
-  <si>
-    <t>113</t>
+    <t>3.3435</t>
+  </si>
+  <si>
+    <t>162</t>
   </si>
 </sst>
 </file>
@@ -423,13 +423,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -446,8 +446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="190500"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:off x="11334750" y="386649"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,13 +613,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1920827</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -636,8 +636,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="2920299"/>
-          <a:ext cx="2381250" cy="1890877"/>
+          <a:off x="11334750" y="2724150"/>
+          <a:ext cx="1920827" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,13 +803,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>486492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1651512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="5257800"/>
-          <a:ext cx="2057148" cy="2381250"/>
+          <a:off x="11334750" y="5744292"/>
+          <a:ext cx="2381250" cy="1165020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,7 +997,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1920827</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -1017,7 +1017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="7791450"/>
-          <a:ext cx="1920827" cy="2381250"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,7 +1085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1123,7 +1123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1161,7 +1161,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1183,13 +1183,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1545000</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1199,15 +1199,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="10325100"/>
-          <a:ext cx="1545000" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="10640014"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1313,7 +1313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1351,7 +1351,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1373,13 +1373,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>312590</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1912365</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,15 +1389,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="13171340"/>
-          <a:ext cx="2381250" cy="1599774"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="12858750"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,7 +1465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1503,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1541,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1655,7 +1655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1693,7 +1693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,13 +1753,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1769,15 +1769,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="18240964"/>
-          <a:ext cx="2381250" cy="1593964"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="18436366"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1883,7 +1883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +1921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1943,13 +1943,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1665672</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,15 +1959,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="20970016"/>
-          <a:ext cx="2381250" cy="1105461"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="20459700"/>
+          <a:ext cx="1665672" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,7 +2035,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2137,7 +2137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2219122</xdr:colOff>
+      <xdr:colOff>2014048</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2149,7 +2149,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="22993350"/>
-          <a:ext cx="2219122" cy="2381250"/>
+          <a:ext cx="2014048" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2301,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2323,13 +2323,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2219122</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2339,15 +2339,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="26013492"/>
-          <a:ext cx="2381250" cy="1165020"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="25527000"/>
+          <a:ext cx="2219122" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2517,7 +2517,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1665672</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2537,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="28060650"/>
-          <a:ext cx="1665672" cy="2381250"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,7 +2681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2703,13 +2703,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2083020</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2258786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2719,15 +2719,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="30594300"/>
-          <a:ext cx="2083020" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="30675943"/>
+          <a:ext cx="2381250" cy="2177143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2871,7 +2871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2897,7 +2897,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1864787</xdr:colOff>
+      <xdr:colOff>1545000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2909,7 +2909,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2917,7 +2917,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="33127950"/>
-          <a:ext cx="1864787" cy="2381250"/>
+          <a:ext cx="1545000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3023,7 +3023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3061,7 +3061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3083,13 +3083,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>335168</xdr:rowOff>
+      <xdr:rowOff>312590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1878498</xdr:rowOff>
+      <xdr:rowOff>1912365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3099,15 +3099,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="35996768"/>
-          <a:ext cx="2381250" cy="1543331"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="35974190"/>
+          <a:ext cx="2381250" cy="1599774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3175,7 +3175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3213,7 +3213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3251,7 +3251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3273,13 +3273,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>45162</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2083020</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2313508</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3289,15 +3289,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="38240412"/>
-          <a:ext cx="2381250" cy="2268346"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="38195250"/>
+          <a:ext cx="2083020" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,7 +3365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3403,7 +3403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3441,7 +3441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3467,7 +3467,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1537690</xdr:colOff>
+      <xdr:colOff>1622079</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3479,7 +3479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3487,7 +3487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="40728900"/>
-          <a:ext cx="1537690" cy="2381250"/>
+          <a:ext cx="1622079" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3593,7 +3593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,7 +3631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3653,13 +3653,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>240270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1622079</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2020845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3669,15 +3669,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="43262550"/>
-          <a:ext cx="1622079" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="43502820"/>
+          <a:ext cx="2381250" cy="1780574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3745,7 +3745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3783,7 +3783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3821,7 +3821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3843,13 +3843,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>227429</xdr:rowOff>
+      <xdr:rowOff>45162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2040106</xdr:rowOff>
+      <xdr:rowOff>2313508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3859,15 +3859,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="46023629"/>
-          <a:ext cx="2381250" cy="1812677"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="45841362"/>
+          <a:ext cx="2381250" cy="2268346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4011,7 +4011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4033,13 +4033,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>282126</xdr:rowOff>
+      <xdr:rowOff>302465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1958060</xdr:rowOff>
+      <xdr:rowOff>1927552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4049,15 +4049,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="48611976"/>
-          <a:ext cx="2381250" cy="1675934"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="48632315"/>
+          <a:ext cx="2381250" cy="1625087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4497,24 +4497,24 @@
     </row>
     <row r="11" spans="1:8" ht="200" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="200" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="200" customHeight="1">

--- a/output/SCAN000702-1/match_result.xlsx
+++ b/output/SCAN000702-1/match_result.xlsx
@@ -43,178 +43,178 @@
     <t>1</t>
   </si>
   <si>
-    <t>4.0621</t>
+    <t>4.5725</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4.0135</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.9739</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.9475</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.8897</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.8118</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.7342</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.7114</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.7006</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.6984</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.6058</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.5973</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.5825</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.5070</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.4727</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.4477</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.4174</t>
   </si>
   <si>
     <t>181</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.9102</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.8674</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.8649</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.8486</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.8340</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.8097</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.8009</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.7888</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>3.6275</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.6205</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.5961</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.5667</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.4904</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.3716</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.3576</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3.3486</t>
   </si>
   <si>
     <t>338</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.4862</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.4798</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.4756</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.4051</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.3712</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3.3435</t>
-  </si>
-  <si>
-    <t>162</t>
   </si>
 </sst>
 </file>
@@ -271,13 +271,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -294,8 +294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="666629"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="661890"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -385,13 +385,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -408,8 +408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="667234"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="660918"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,13 +423,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -446,8 +446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="386649"/>
-          <a:ext cx="2381250" cy="1890877"/>
+          <a:off x="11334750" y="190500"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -461,13 +461,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -484,8 +484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="3200279"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="3195540"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,13 +575,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,8 +598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="3200884"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="3194568"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,7 +617,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1920827</xdr:colOff>
+      <xdr:colOff>2219122</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -637,7 +637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="2724150"/>
-          <a:ext cx="1920827" cy="2381250"/>
+          <a:ext cx="2219122" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,13 +651,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -674,8 +674,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="5733929"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="5729190"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,13 +765,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -788,8 +788,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="5734534"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="5728218"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,13 +803,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="5744292"/>
-          <a:ext cx="2381250" cy="1165020"/>
+          <a:off x="11334750" y="5768116"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -841,13 +841,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -864,8 +864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="8267579"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="8262840"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,13 +955,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,8 +978,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="8268184"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="8261868"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,7 +997,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>1920827</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -1017,7 +1017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="7791450"/>
-          <a:ext cx="2057148" cy="2381250"/>
+          <a:ext cx="1920827" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,13 +1031,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1054,8 +1054,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="10801229"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="10796490"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,13 +1145,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1168,8 +1168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="10801834"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="10795518"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,13 +1183,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1206,8 +1206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="10640014"/>
-          <a:ext cx="2381250" cy="1593964"/>
+          <a:off x="11334750" y="10325100"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,13 +1221,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1244,8 +1244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="13334879"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="13330140"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,13 +1335,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1358,8 +1358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="13335484"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="13329168"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,13 +1373,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1396,8 +1396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="12858750"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:off x="11334750" y="13173664"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,13 +1411,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1434,8 +1434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="15868529"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="15863790"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,13 +1525,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1548,8 +1548,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="15869134"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="15862818"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,13 +1563,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>2258786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,8 +1586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="15841639"/>
-          <a:ext cx="2381250" cy="1258153"/>
+          <a:off x="11334750" y="15474043"/>
+          <a:ext cx="2381250" cy="2177143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1601,13 +1601,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1624,8 +1624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="18402179"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="18397440"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1715,13 +1715,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1738,8 +1738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="18402784"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="18396468"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1753,13 +1753,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>449239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>1707392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,8 +1776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="18436366"/>
-          <a:ext cx="2381250" cy="1105461"/>
+          <a:off x="11334750" y="18375289"/>
+          <a:ext cx="2381250" cy="1258153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1791,13 +1791,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1814,8 +1814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="20935829"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="20931090"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1905,13 +1905,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1928,8 +1928,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="20936434"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="20930118"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,13 +1981,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2004,8 +2004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="23469479"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="23464740"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,7 +2035,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2095,13 +2095,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2111,15 +2111,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="23470084"/>
-          <a:ext cx="1905000" cy="1189416"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="23463768"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,7 +2137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2014048</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2149,7 +2149,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="22993350"/>
-          <a:ext cx="2014048" cy="2381250"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2171,13 +2171,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,8 +2194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="26003129"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="25998390"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,13 +2285,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2301,15 +2301,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="26003734"/>
-          <a:ext cx="1905000" cy="1189416"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="25997418"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2323,13 +2323,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2219122</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2313508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2346,8 +2346,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="25527000"/>
-          <a:ext cx="2219122" cy="2381250"/>
+          <a:off x="11334750" y="25572162"/>
+          <a:ext cx="2381250" cy="2268346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2361,13 +2361,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2384,8 +2384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="28536779"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="28532040"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2475,13 +2475,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2491,15 +2491,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="28537384"/>
-          <a:ext cx="1905000" cy="1189416"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="28531068"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2517,7 +2517,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1864787</xdr:colOff>
+      <xdr:colOff>2180724</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2529,7 +2529,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2537,7 +2537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="28060650"/>
-          <a:ext cx="1864787" cy="2381250"/>
+          <a:ext cx="2180724" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2551,13 +2551,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2574,8 +2574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="31070429"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="31065690"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2665,13 +2665,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2681,15 +2681,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="31071034"/>
-          <a:ext cx="1905000" cy="1189416"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="31064718"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2703,13 +2703,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>335168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2258786</xdr:rowOff>
+      <xdr:rowOff>1878498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2719,15 +2719,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="30675943"/>
-          <a:ext cx="2381250" cy="2177143"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="30929468"/>
+          <a:ext cx="2381250" cy="1543331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2741,13 +2741,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2764,8 +2764,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="33604079"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="33599340"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2855,13 +2855,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2871,15 +2871,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="33604684"/>
-          <a:ext cx="1905000" cy="1189416"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="33598368"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2893,13 +2893,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>486492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1545000</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1651512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2916,8 +2916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="33127950"/>
-          <a:ext cx="1545000" cy="2381250"/>
+          <a:off x="11334750" y="33614442"/>
+          <a:ext cx="2381250" cy="1165020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2931,13 +2931,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2954,8 +2954,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="36137729"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="36132990"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3045,13 +3045,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3068,8 +3068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="36138334"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="36132018"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3083,13 +3083,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>312590</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2083020</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1912365</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3106,8 +3106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="35974190"/>
-          <a:ext cx="2381250" cy="1599774"/>
+          <a:off x="11334750" y="35661600"/>
+          <a:ext cx="2083020" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3121,13 +3121,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3144,8 +3144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="38671379"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="38666640"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3235,13 +3235,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3258,8 +3258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="38671984"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="38665668"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3273,13 +3273,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>312590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2083020</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1912365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3296,8 +3296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="38195250"/>
-          <a:ext cx="2083020" cy="2381250"/>
+          <a:off x="11334750" y="38507840"/>
+          <a:ext cx="2381250" cy="1599774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3311,13 +3311,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3334,8 +3334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="41205029"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="41200290"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3425,13 +3425,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3448,8 +3448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="41205634"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="41199318"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3463,13 +3463,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1622079</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3486,8 +3486,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="40728900"/>
-          <a:ext cx="1622079" cy="2381250"/>
+          <a:off x="11334750" y="40925049"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3501,13 +3501,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3524,8 +3524,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="43738679"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="43733940"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3615,13 +3615,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3638,8 +3638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="43739284"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="43732968"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,13 +3691,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3714,8 +3714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="46272329"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="46267590"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3805,13 +3805,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3828,8 +3828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="46272934"/>
-          <a:ext cx="1905000" cy="1189416"/>
+          <a:off x="8953500" y="46266618"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3843,13 +3843,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>45162</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1622079</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2313508</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3866,8 +3866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="45841362"/>
-          <a:ext cx="2381250" cy="2268346"/>
+          <a:off x="11334750" y="45796200"/>
+          <a:ext cx="1622079" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3881,13 +3881,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>476129</xdr:rowOff>
+      <xdr:rowOff>471390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1667057</xdr:rowOff>
+      <xdr:rowOff>1674165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3904,8 +3904,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="48805979"/>
-          <a:ext cx="1905000" cy="1190928"/>
+          <a:off x="3143250" y="48801240"/>
+          <a:ext cx="1905000" cy="1202774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3995,13 +3995,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>476734</xdr:rowOff>
+      <xdr:rowOff>470418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1666150</xdr:rowOff>
+      <xdr:rowOff>1675622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4011,15 +4011,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8953500" y="48806584"/>
-          <a:ext cx="1905000" cy="1189416"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="48800268"/>
+          <a:ext cx="1905000" cy="1205204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4033,13 +4033,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>302465</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1545000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>1927552</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4049,15 +4049,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="48632315"/>
-          <a:ext cx="2381250" cy="1625087"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="48329850"/>
+          <a:ext cx="1545000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4497,57 +4497,57 @@
     </row>
     <row r="11" spans="1:8" ht="200" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="200" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="200" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="200" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="200" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="200" customHeight="1">

--- a/output/SCAN000702-1/match_result.xlsx
+++ b/output/SCAN000702-1/match_result.xlsx
@@ -43,178 +43,178 @@
     <t>1</t>
   </si>
   <si>
-    <t>4.5725</t>
+    <t>3.8746</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3.8682</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4.0135</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3.7634</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.5055</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.4861</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3.4577</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.4378</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.3916</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.3707</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>3.3489</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.9739</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.9475</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.8897</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.8118</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.7342</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.3374</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.2850</t>
   </si>
   <si>
     <t>247</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.7114</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.7006</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.6984</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.6058</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.2243</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.2141</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.1709</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.1626</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.5973</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.5825</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.5070</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.4727</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.4477</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>3.4174</t>
-  </si>
-  <si>
-    <t>181</t>
+    <t>3.1165</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>3.3716</t>
-  </si>
-  <si>
-    <t>114</t>
+    <t>3.0813</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>3.3576</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>3.0726</t>
+  </si>
+  <si>
+    <t>162</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.3486</t>
-  </si>
-  <si>
-    <t>338</t>
+    <t>3.0685</t>
+  </si>
+  <si>
+    <t>113</t>
   </si>
 </sst>
 </file>
@@ -423,13 +423,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -446,8 +446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="190500"/>
-          <a:ext cx="2057148" cy="2381250"/>
+          <a:off x="11334750" y="700816"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,7 +617,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2219122</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -637,7 +637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="2724150"/>
-          <a:ext cx="2219122" cy="2381250"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,13 +803,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="5768116"/>
-          <a:ext cx="2381250" cy="1105461"/>
+          <a:off x="11334750" y="5257800"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,13 +993,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1920827</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,8 +1016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="7791450"/>
-          <a:ext cx="1920827" cy="2381250"/>
+          <a:off x="11334750" y="8106364"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,7 +1187,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -1207,7 +1207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="10325100"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1313,7 +1313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1351,7 +1351,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1373,13 +1373,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>449239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>1707392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,15 +1389,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="13173664"/>
-          <a:ext cx="2381250" cy="1593964"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="13307989"/>
+          <a:ext cx="2381250" cy="1258153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,7 +1465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1503,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1541,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1563,13 +1563,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1920827</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2258786</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1579,15 +1579,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="15474043"/>
-          <a:ext cx="2381250" cy="2177143"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="15392400"/>
+          <a:ext cx="1920827" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,7 +1655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1693,7 +1693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,13 +1753,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2083020</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1769,15 +1769,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="18375289"/>
-          <a:ext cx="2381250" cy="1258153"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="17926050"/>
+          <a:ext cx="2083020" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1883,7 +1883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +1921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1959,7 +1959,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2035,7 +2035,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2137,7 +2137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1864787</xdr:colOff>
+      <xdr:colOff>2219122</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2149,7 +2149,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="22993350"/>
-          <a:ext cx="1864787" cy="2381250"/>
+          <a:ext cx="2219122" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2301,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2323,13 +2323,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>45162</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2313508</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2339,15 +2339,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="25572162"/>
-          <a:ext cx="2381250" cy="2268346"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="25723149"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2513,13 +2513,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2180724</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2258786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,15 +2529,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="28060650"/>
-          <a:ext cx="2180724" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="28142293"/>
+          <a:ext cx="2381250" cy="2177143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,7 +2681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2719,7 +2719,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2795,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2871,7 +2871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2893,13 +2893,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>312590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>1912365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2909,15 +2909,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="33614442"/>
-          <a:ext cx="2381250" cy="1165020"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="33440540"/>
+          <a:ext cx="2381250" cy="1599774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3023,7 +3023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3061,7 +3061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3087,7 +3087,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2083020</xdr:colOff>
+      <xdr:colOff>2180724</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3099,7 +3099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3107,7 +3107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="35661600"/>
-          <a:ext cx="2083020" cy="2381250"/>
+          <a:ext cx="2180724" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3175,7 +3175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3213,7 +3213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3251,7 +3251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3273,13 +3273,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>312590</xdr:rowOff>
+      <xdr:rowOff>45162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1912365</xdr:rowOff>
+      <xdr:rowOff>2313508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3289,15 +3289,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="38507840"/>
-          <a:ext cx="2381250" cy="1599774"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="38240412"/>
+          <a:ext cx="2381250" cy="2268346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,7 +3365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3403,7 +3403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3441,7 +3441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3463,13 +3463,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>486492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>1651512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3479,15 +3479,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="40925049"/>
-          <a:ext cx="2381250" cy="1890877"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="41215392"/>
+          <a:ext cx="2381250" cy="1165020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3593,7 +3593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,7 +3631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3653,13 +3653,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>240270</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1622079</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2020845</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3669,15 +3669,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="43502820"/>
-          <a:ext cx="2381250" cy="1780574"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="43262550"/>
+          <a:ext cx="1622079" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3745,7 +3745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3783,7 +3783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3821,7 +3821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3843,13 +3843,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>302465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1622079</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1927552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3859,15 +3859,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="45796200"/>
-          <a:ext cx="1622079" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="46098665"/>
+          <a:ext cx="2381250" cy="1625087"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4011,7 +4011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4033,13 +4033,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>282126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1545000</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1958060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4049,15 +4049,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="48329850"/>
-          <a:ext cx="1545000" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="48611976"/>
+          <a:ext cx="2381250" cy="1675934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4547,40 +4547,40 @@
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="200" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="200" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="200" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="200" customHeight="1">

--- a/output/SCAN000702-1/match_result.xlsx
+++ b/output/SCAN000702-1/match_result.xlsx
@@ -43,175 +43,175 @@
     <t>1</t>
   </si>
   <si>
-    <t>3.8746</t>
+    <t>4.5629</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4.5219</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.3125</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.3090</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4.2559</t>
   </si>
   <si>
     <t>380</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3.8682</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.7634</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.5055</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4.1969</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4.1843</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.1396</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4.1222</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>4.0659</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.0063</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.9989</t>
   </si>
   <si>
     <t>376</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.4861</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3.9847</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.9815</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.8985</t>
   </si>
   <si>
     <t>288</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3.4577</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.4378</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.3916</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.3707</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3.3489</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.3374</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.2850</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.8569</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.7391</t>
   </si>
   <si>
     <t>247</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3.2243</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3.7075</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3.7055</t>
   </si>
   <si>
     <t>115</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>3.2141</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3.1709</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3.1626</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>3.1165</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3.0813</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3.0726</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>3.0685</t>
+    <t>3.6903</t>
   </si>
   <si>
     <t>113</t>
@@ -423,13 +423,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -446,8 +446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="700816"/>
-          <a:ext cx="2381250" cy="1105461"/>
+          <a:off x="11334750" y="190500"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,7 +617,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -637,7 +637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="2724150"/>
-          <a:ext cx="2057148" cy="2381250"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,7 +807,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>1920827</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -827,7 +827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="5257800"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:ext cx="1920827" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,13 +993,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2219122</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,8 +1016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="8106364"/>
-          <a:ext cx="2381250" cy="1593964"/>
+          <a:off x="11334750" y="7791450"/>
+          <a:ext cx="2219122" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,13 +1183,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1864787</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1206,8 +1206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="10325100"/>
-          <a:ext cx="1864787" cy="2381250"/>
+          <a:off x="11334750" y="10835416"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1313,7 +1313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1351,7 +1351,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1373,13 +1373,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>486492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>1651512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,15 +1389,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="13307989"/>
-          <a:ext cx="2381250" cy="1258153"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="13345242"/>
+          <a:ext cx="2381250" cy="1165020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,7 +1465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1503,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1541,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1567,7 +1567,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1920827</xdr:colOff>
+      <xdr:colOff>1622079</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -1579,7 +1579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1587,7 +1587,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="15392400"/>
-          <a:ext cx="1920827" cy="2381250"/>
+          <a:ext cx="1622079" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,7 +1655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1693,7 +1693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,13 +1753,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>449239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2083020</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1707392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1769,15 +1769,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="17926050"/>
-          <a:ext cx="2083020" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="18375289"/>
+          <a:ext cx="2381250" cy="1258153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1845,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1883,7 +1883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +1921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1943,13 +1943,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>254661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1665672</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1999258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,15 +1959,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="20459700"/>
-          <a:ext cx="1665672" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="20714361"/>
+          <a:ext cx="2381250" cy="1744596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,7 +2035,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2111,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2137,7 +2137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2219122</xdr:colOff>
+      <xdr:colOff>2083020</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -2149,7 +2149,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2157,7 +2157,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="22993350"/>
-          <a:ext cx="2219122" cy="2381250"/>
+          <a:ext cx="2083020" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2225,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2263,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2301,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2339,7 +2339,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2415,7 +2415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2513,13 +2513,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2258786</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,15 +2529,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="28142293"/>
-          <a:ext cx="2381250" cy="2177143"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="28375564"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,7 +2681,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2703,13 +2703,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>335168</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1545000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1878498</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2719,15 +2719,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="30929468"/>
-          <a:ext cx="2381250" cy="1543331"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="30594300"/>
+          <a:ext cx="1545000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2833,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2871,7 +2871,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2893,13 +2893,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>312590</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1665672</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1912365</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2909,15 +2909,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="33440540"/>
-          <a:ext cx="2381250" cy="1599774"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="33127950"/>
+          <a:ext cx="1665672" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3023,7 +3023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3061,7 +3061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3087,7 +3087,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2180724</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3099,7 +3099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3107,7 +3107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="35661600"/>
-          <a:ext cx="2180724" cy="2381250"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3175,7 +3175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3213,7 +3213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3251,7 +3251,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3289,7 +3289,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3365,7 +3365,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3403,7 +3403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3441,7 +3441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3463,13 +3463,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>2258786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3479,15 +3479,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="41215392"/>
-          <a:ext cx="2381250" cy="1165020"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="40810543"/>
+          <a:ext cx="2381250" cy="2177143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3593,7 +3593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,7 +3631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3653,13 +3653,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>356767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1622079</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1846100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3669,15 +3669,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="43262550"/>
-          <a:ext cx="1622079" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="43619317"/>
+          <a:ext cx="2381250" cy="1489333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3745,7 +3745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3783,7 +3783,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3821,7 +3821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3843,13 +3843,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>302465</xdr:rowOff>
+      <xdr:rowOff>335168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>1927552</xdr:rowOff>
+      <xdr:rowOff>1878498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3859,15 +3859,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="46098665"/>
-          <a:ext cx="2381250" cy="1625087"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="46131368"/>
+          <a:ext cx="2381250" cy="1543331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3935,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4011,7 +4011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4049,7 +4049,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4497,90 +4497,90 @@
     </row>
     <row r="11" spans="1:8" ht="200" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="200" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="200" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="200" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="200" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="200" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="200" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="200" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="200" customHeight="1">
